--- a/src/test/java/_02_ApachePOI/Resources/LoginData.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/LoginData.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="yyoldas" reservationPassword="ED25"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="23260" windowHeight="12580" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="23260" windowHeight="12580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login2" sheetId="1" r:id="rId4"/>
@@ -16,10 +16,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1668524085" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1668524085" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1668524085" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1668524085"/>
+      <pm:revision xmlns:pm="smNativeData" day="1668524810" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1668524810" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1668524810" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1668524810"/>
     </ext>
   </extLst>
 </workbook>
@@ -122,7 +122,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668524085" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668524810" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -137,7 +137,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668524085" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668524810" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -170,7 +170,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1668524085"/>
+          <pm:border xmlns:pm="smNativeData" id="1668524810"/>
         </ext>
       </extLst>
     </border>
@@ -187,10 +187,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1668524085" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1668524810" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1668524085" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1668524810" count="2">
         <pm:color name="Color 26" rgb="6A8759"/>
         <pm:color name="Color 24" rgb="A9B7C6"/>
       </pm:colors>
@@ -527,7 +527,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668524085" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668524810" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -536,16 +536,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668524085" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668524085" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524085" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524085" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524085" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524810" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -612,7 +612,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668524085" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668524810" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -621,16 +621,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668524085" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668524085" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524085" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524085" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524085" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524810" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -643,13 +643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="10.660714" customWidth="1"/>
+    <col min="1" max="1" width="10.839286" customWidth="1"/>
     <col min="2" max="2" width="12.312500" customWidth="1"/>
   </cols>
   <sheetData>
@@ -665,7 +665,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668524085" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668524810" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -674,16 +674,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668524085" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668524085" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524085" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524085" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524085" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524810" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
@@ -722,7 +722,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668524085" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668524810" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -731,16 +731,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668524085" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668524085" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524085" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524085" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524085" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524810" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/test/java/_02_ApachePOI/Resources/LoginData.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/LoginData.xlsx
@@ -5,28 +5,29 @@
   <fileSharing readOnlyRecommended="0" userName="yyoldas" reservationPassword="ED25"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="23260" windowHeight="12580" tabRatio="500"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="23260" windowHeight="12580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login2" sheetId="1" r:id="rId4"/>
     <sheet name="DiologContent" sheetId="2" r:id="rId5"/>
     <sheet name="Login" sheetId="3" r:id="rId6"/>
     <sheet name="LoginDB" sheetId="4" r:id="rId7"/>
+    <sheet name="LoginDB2" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1668524810" val="1054" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1668524810" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1668524810" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1668524810"/>
+      <pm:revision xmlns:pm="smNativeData" day="1668991523" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1668991523" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1668991523" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1668991523"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -98,6 +99,9 @@
   </si>
   <si>
     <t>jdbc:mysql://db-technostudy.ckr1jisflxpv.us-east-1.rds.amazonaws.com:3306/yyoldas</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://db-technostudy.ckr1jisflxpv.us-east-1.rds.amazonaws.com:3306/sakila</t>
   </si>
 </sst>
 </file>
@@ -114,7 +118,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,7 +126,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668524810" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668991523" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -137,7 +141,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668524810" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668991523" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -145,16 +149,41 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="JetBrains Mono"/>
+      <color rgb="FF6A8759"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1668991523" fgClr="6A8759" bgClr="A9B7C6" ulstyle="none">
+            <pm:latin face="JetBrains Mono" sz="200" lang="default"/>
+            <pm:cs face="Arial" sz="200" lang="default"/>
+            <pm:ea face="Arial" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1668991523" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -170,7 +199,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1668524810"/>
+          <pm:border xmlns:pm="smNativeData" id="1668991523"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1668991523"/>
         </ext>
       </extLst>
     </border>
@@ -187,12 +235,13 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1668524810" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1668991523" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1668524810" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1668991523" count="3">
         <pm:color name="Color 26" rgb="6A8759"/>
         <pm:color name="Color 24" rgb="A9B7C6"/>
+        <pm:color name="Color 25" rgb="2B2B2B"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -454,7 +503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
@@ -527,7 +576,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668524810" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -536,16 +585,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524810" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -555,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
@@ -612,7 +661,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668524810" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -621,16 +670,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524810" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -640,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
@@ -665,7 +714,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668524810" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -674,16 +723,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524810" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -693,10 +742,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +771,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668524810" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -731,16 +780,73 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668524810" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668524810" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668524810" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="1" width="4.187500" customWidth="1"/>
+    <col min="2" max="2" width="13.705357" customWidth="1"/>
+    <col min="3" max="3" width="69.196429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/src/test/java/_02_ApachePOI/Resources/LoginData.xlsx
+++ b/src/test/java/_02_ApachePOI/Resources/LoginData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="yyoldas" reservationPassword="ED25"/>
+  <fileSharing readOnlyRecommended="0" userName="yyoldas"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="23260" windowHeight="12580" tabRatio="500"/>
@@ -17,10 +17,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1668991523" val="1058" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1668991523" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1668991523" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1668991523"/>
+      <pm:revision xmlns:pm="smNativeData" day="1673455952" val="1060" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1673455952" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1673455952" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1673455952"/>
     </ext>
   </extLst>
 </workbook>
@@ -86,10 +86,10 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>richfield.edu</t>
-  </si>
-  <si>
-    <t>Richfield2020!</t>
+    <t>turkeyts</t>
+  </si>
+  <si>
+    <t>TechnoStudy123</t>
   </si>
   <si>
     <t>root</t>
@@ -118,7 +118,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,7 +126,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668991523" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1673455952" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -141,24 +141,10 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668991523" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1673455952" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="JetBrains Mono"/>
-      <color rgb="FF6A8759"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1668991523" fgClr="6A8759" bgClr="A9B7C6" ulstyle="none">
-            <pm:latin face="JetBrains Mono" sz="200" lang="default"/>
-            <pm:cs face="Arial" sz="200" lang="default"/>
-            <pm:ea face="Arial" sz="200" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -177,7 +163,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1668991523" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1673455952" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -199,7 +185,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1668991523"/>
+          <pm:border xmlns:pm="smNativeData" id="1673455952"/>
         </ext>
       </extLst>
     </border>
@@ -218,7 +204,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1668991523"/>
+          <pm:border xmlns:pm="smNativeData" id="1673455952"/>
         </ext>
       </extLst>
     </border>
@@ -235,10 +221,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1668991523" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1673455952" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1668991523" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1673455952" count="3">
         <pm:color name="Color 26" rgb="6A8759"/>
         <pm:color name="Color 24" rgb="A9B7C6"/>
         <pm:color name="Color 25" rgb="2B2B2B"/>
@@ -576,7 +562,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1673455952" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -585,16 +571,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1673455952" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -661,7 +647,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1673455952" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -670,16 +656,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1673455952" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -690,16 +676,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="10.839286" customWidth="1"/>
-    <col min="2" max="2" width="12.312500" customWidth="1"/>
+    <col min="1" max="1" width="7.312500" customWidth="1"/>
+    <col min="2" max="2" width="14.017857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -714,7 +700,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1673455952" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -723,16 +709,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1673455952" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -771,7 +757,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1673455952" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -780,16 +766,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1673455952" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -803,7 +789,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
@@ -828,7 +814,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1668991523" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1673455952" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -837,16 +823,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1668991523" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1668991523" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1673455952" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1673455952" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1668991523" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1673455952" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
